--- a/data/trans_orig/P6713-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5F8738-756C-4938-A701-07E0C800F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F034306D-8683-4084-8005-22DC2D4B9081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1ADF5928-BB79-4CEF-A86B-391C43CA3D80}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AECD0F9-CB01-40AD-9EBF-D35A85674510}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,28 +105,28 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,28 +135,28 @@
     <t>18,23%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -165,28 +165,28 @@
     <t>21,63%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -195,28 +195,28 @@
     <t>47,44%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -228,693 +228,687 @@
     <t>4,63%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
     <t>2,2%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>8,1%</t>
   </si>
   <si>
@@ -1035,9 +1029,6 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
     <t>9,69%</t>
   </si>
   <si>
@@ -1078,9 +1069,6 @@
   </si>
   <si>
     <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
   </si>
   <si>
     <t>25,67%</t>
@@ -1543,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D95B39-2EED-4B42-8994-8660A4061D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAE8D5C-A229-4FF8-BF6F-AE8978AB289F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,10 +1966,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -1990,13 +1978,13 @@
         <v>42120</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -2005,13 +1993,13 @@
         <v>84346</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2014,7 @@
         <v>50008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>71</v>
@@ -2131,10 +2119,10 @@
         <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2143,13 +2131,13 @@
         <v>134488</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -2158,10 +2146,10 @@
         <v>353222</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>95</v>
@@ -2319,7 +2307,7 @@
         <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2322,13 @@
         <v>14695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2349,13 +2337,13 @@
         <v>10453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -2364,13 +2352,13 @@
         <v>25148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2373,13 @@
         <v>50579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2400,13 +2388,13 @@
         <v>28361</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -2415,13 +2403,13 @@
         <v>78940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,10 +2424,10 @@
         <v>65503</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>134</v>
@@ -2660,10 +2648,10 @@
         <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>125</v>
@@ -2672,13 +2660,13 @@
         <v>139446</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2681,13 @@
         <v>286493</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -2708,13 +2696,13 @@
         <v>198680</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>455</v>
@@ -2723,13 +2711,13 @@
         <v>485173</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2732,13 @@
         <v>323810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -2759,13 +2747,13 @@
         <v>197750</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -2774,13 +2762,13 @@
         <v>521560</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2783,13 @@
         <v>665738</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -2810,28 +2798,28 @@
         <v>422865</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1015</v>
       </c>
       <c r="N26" s="7">
-        <v>1088603</v>
+        <v>1088602</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2861,7 @@
         <v>2196</v>
       </c>
       <c r="N27" s="7">
-        <v>2353849</v>
+        <v>2353848</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2887,7 +2875,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11854601-C889-479C-B41D-F9D8142BC7CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48437416-E9D8-4C35-93F9-AAE0DBB188FC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,7 +2911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3030,13 +3018,13 @@
         <v>13116</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3045,13 +3033,13 @@
         <v>8151</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3060,13 +3048,13 @@
         <v>21267</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3069,13 @@
         <v>22816</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3096,13 +3084,13 @@
         <v>16662</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3111,13 +3099,13 @@
         <v>39478</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3120,13 @@
         <v>41875</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3147,13 +3135,13 @@
         <v>18907</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -3162,13 +3150,13 @@
         <v>60782</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,10 +3174,10 @@
         <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3198,13 +3186,13 @@
         <v>14865</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3213,13 +3201,13 @@
         <v>46634</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3222,13 @@
         <v>33542</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3249,13 +3237,13 @@
         <v>13502</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -3264,13 +3252,13 @@
         <v>47043</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3326,13 @@
         <v>63055</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -3353,13 +3341,13 @@
         <v>71386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -3368,13 +3356,13 @@
         <v>134441</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3377,10 @@
         <v>96629</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>248</v>
@@ -3542,13 +3530,13 @@
         <v>266121</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -3557,13 +3545,13 @@
         <v>149746</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -3572,13 +3560,13 @@
         <v>415867</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3634,13 @@
         <v>5352</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3661,13 +3649,13 @@
         <v>11140</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3676,13 +3664,13 @@
         <v>16492</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3685,13 @@
         <v>17991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3712,13 +3700,13 @@
         <v>19090</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -3727,10 +3715,10 @@
         <v>37081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>73</v>
@@ -3748,13 +3736,13 @@
         <v>72147</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -3763,13 +3751,13 @@
         <v>57229</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -3778,13 +3766,13 @@
         <v>129376</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3787,13 @@
         <v>74638</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3814,13 +3802,13 @@
         <v>71243</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -3829,13 +3817,13 @@
         <v>145881</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,10 +3838,10 @@
         <v>180480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>141</v>
@@ -3865,13 +3853,13 @@
         <v>149750</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -3880,13 +3868,13 @@
         <v>330231</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3942,13 @@
         <v>81523</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -3969,13 +3957,13 @@
         <v>90677</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -3984,13 +3972,13 @@
         <v>172200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3993,13 @@
         <v>137436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>129</v>
@@ -4020,13 +4008,13 @@
         <v>127625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>259</v>
@@ -4035,13 +4023,13 @@
         <v>265061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4044,13 @@
         <v>356405</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>225</v>
@@ -4071,13 +4059,13 @@
         <v>228452</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="M24" s="7">
         <v>552</v>
@@ -4086,13 +4074,13 @@
         <v>584856</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4095,13 @@
         <v>363418</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -4122,13 +4110,13 @@
         <v>273563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>612</v>
@@ -4140,10 +4128,10 @@
         <v>271</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4146,13 @@
         <v>480143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>300</v>
@@ -4173,13 +4161,13 @@
         <v>312998</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>745</v>
@@ -4188,13 +4176,13 @@
         <v>793141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,7 +4238,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F034306D-8683-4084-8005-22DC2D4B9081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72067300-DEF5-4E73-960E-5F0DA2A228EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AECD0F9-CB01-40AD-9EBF-D35A85674510}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{440E2289-1919-4CFB-8919-F662F2D50CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="367">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,1021 +105,1039 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>28,76%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>32,34%</t>
   </si>
   <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAE8D5C-A229-4FF8-BF6F-AE8978AB289F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127307F8-AF7A-4810-BAD3-2F8DB2F9E583}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1966,10 +1984,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -1978,13 +1996,13 @@
         <v>42120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1993,13 +2011,13 @@
         <v>84346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2032,13 @@
         <v>50008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -2029,13 +2047,13 @@
         <v>44501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -2044,13 +2062,13 @@
         <v>94509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2083,13 @@
         <v>202555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
@@ -2080,13 +2098,13 @@
         <v>133443</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -2095,13 +2113,13 @@
         <v>335998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2134,13 @@
         <v>218734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2131,13 +2149,13 @@
         <v>134488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -2146,13 +2164,13 @@
         <v>353222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2185,13 @@
         <v>398832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2182,13 +2200,13 @@
         <v>213878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -2197,13 +2215,13 @@
         <v>612710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2277,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2289,13 @@
         <v>4334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2286,13 +2304,13 @@
         <v>5167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2301,13 +2319,13 @@
         <v>9501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2340,13 @@
         <v>14695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2337,13 +2355,13 @@
         <v>10453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -2352,13 +2370,13 @@
         <v>25148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2391,13 @@
         <v>50579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2388,13 +2406,13 @@
         <v>28361</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -2403,10 +2421,10 @@
         <v>78940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>132</v>
@@ -2427,10 +2445,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2439,13 +2457,13 @@
         <v>48858</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2454,13 +2472,13 @@
         <v>114361</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2493,13 @@
         <v>180093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -2490,13 +2508,13 @@
         <v>142058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -2505,13 +2523,13 @@
         <v>322150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2597,13 @@
         <v>58826</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -2594,13 +2612,13 @@
         <v>60240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -2609,13 +2627,13 @@
         <v>119067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2648,13 @@
         <v>75679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -2645,13 +2663,13 @@
         <v>63767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>125</v>
@@ -2660,13 +2678,13 @@
         <v>139446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2699,13 @@
         <v>286493</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -2696,13 +2714,13 @@
         <v>198680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>455</v>
@@ -2711,13 +2729,13 @@
         <v>485173</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2750,13 @@
         <v>323810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -2747,13 +2765,13 @@
         <v>197750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -2762,13 +2780,13 @@
         <v>521560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2801,13 @@
         <v>665738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -2798,28 +2816,28 @@
         <v>422865</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1015</v>
       </c>
       <c r="N26" s="7">
-        <v>1088602</v>
+        <v>1088603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2879,7 @@
         <v>2196</v>
       </c>
       <c r="N27" s="7">
-        <v>2353848</v>
+        <v>2353849</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2875,7 +2893,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48437416-E9D8-4C35-93F9-AAE0DBB188FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B11FD2-EA0C-442D-B48C-4F9DFAC613B4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2911,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3018,13 +3036,13 @@
         <v>13116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3033,13 +3051,13 @@
         <v>8151</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3048,13 +3066,13 @@
         <v>21267</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3087,13 @@
         <v>22816</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3084,13 +3102,13 @@
         <v>16662</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3099,13 +3117,13 @@
         <v>39478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3138,13 @@
         <v>41875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3135,13 +3153,13 @@
         <v>18907</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -3150,13 +3168,13 @@
         <v>60782</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3189,13 @@
         <v>31769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3186,13 +3204,13 @@
         <v>14865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3201,13 +3219,13 @@
         <v>46634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3240,13 @@
         <v>33542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3237,13 +3255,13 @@
         <v>13502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -3252,13 +3270,13 @@
         <v>47043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3344,13 @@
         <v>63055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -3341,13 +3359,13 @@
         <v>71386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -3356,13 +3374,13 @@
         <v>134441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3395,13 @@
         <v>96629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3392,13 +3410,13 @@
         <v>91872</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -3407,13 +3425,13 @@
         <v>188501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3446,13 @@
         <v>242383</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -3443,13 +3461,13 @@
         <v>152316</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>372</v>
@@ -3458,13 +3476,13 @@
         <v>394699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3497,13 @@
         <v>257009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -3494,10 +3512,10 @@
         <v>187455</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>269</v>
@@ -3530,13 +3548,13 @@
         <v>266121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -3545,13 +3563,13 @@
         <v>149746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -3560,13 +3578,13 @@
         <v>415867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3634,13 +3652,13 @@
         <v>5352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3649,13 +3667,13 @@
         <v>11140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3664,13 +3682,13 @@
         <v>16492</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3703,13 @@
         <v>17991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3700,13 +3718,13 @@
         <v>19090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -3715,13 +3733,13 @@
         <v>37081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3754,13 @@
         <v>72147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -3751,13 +3769,13 @@
         <v>57229</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -3766,13 +3784,13 @@
         <v>129376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3805,13 @@
         <v>74638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3802,13 +3820,13 @@
         <v>71243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -3817,13 +3835,13 @@
         <v>145881</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3856,13 @@
         <v>180480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -3853,13 +3871,13 @@
         <v>149750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -3868,13 +3886,13 @@
         <v>330231</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3960,13 @@
         <v>81523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -3957,13 +3975,13 @@
         <v>90677</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -3972,13 +3990,13 @@
         <v>172200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4011,13 @@
         <v>137436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>129</v>
@@ -4008,13 +4026,13 @@
         <v>127625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>259</v>
@@ -4023,13 +4041,13 @@
         <v>265061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4062,13 @@
         <v>356405</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>225</v>
@@ -4059,13 +4077,13 @@
         <v>228452</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>552</v>
@@ -4074,13 +4092,13 @@
         <v>584856</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4113,13 @@
         <v>363418</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -4110,13 +4128,13 @@
         <v>273563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>612</v>
@@ -4125,13 +4143,13 @@
         <v>636980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4164,13 @@
         <v>480143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>300</v>
@@ -4161,13 +4179,13 @@
         <v>312998</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>745</v>
@@ -4176,13 +4194,13 @@
         <v>793141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4256,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72067300-DEF5-4E73-960E-5F0DA2A228EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49AED946-24F2-4A29-BE8D-DA77F8785831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{440E2289-1919-4CFB-8919-F662F2D50CCB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A209006C-27DC-4A8C-8F1B-4DBC2E2BA316}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="365">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -75,289 +75,283 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>7,71%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>26,09%</t>
   </si>
   <si>
     <t>43,71%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -366,778 +360,778 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>32,34%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127307F8-AF7A-4810-BAD3-2F8DB2F9E583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D5983-90AF-4D86-A86A-07C0225AC72A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,13 +2026,13 @@
         <v>50008</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -2047,13 +2041,13 @@
         <v>44501</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -2062,13 +2056,13 @@
         <v>94509</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2077,13 @@
         <v>202555</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
@@ -2098,13 +2092,13 @@
         <v>133443</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -2113,13 +2107,13 @@
         <v>335998</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2128,13 @@
         <v>218734</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -2149,13 +2143,13 @@
         <v>134488</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -2164,13 +2158,13 @@
         <v>353222</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2179,13 @@
         <v>398832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2200,13 +2194,13 @@
         <v>213878</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -2215,13 +2209,13 @@
         <v>612710</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2271,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2283,13 @@
         <v>4334</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2304,13 +2298,13 @@
         <v>5167</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2319,13 +2313,13 @@
         <v>9501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2334,13 @@
         <v>14695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2355,13 +2349,13 @@
         <v>10453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -2370,13 +2364,13 @@
         <v>25148</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2385,13 @@
         <v>50579</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2406,13 +2400,13 @@
         <v>28361</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -2421,13 +2415,13 @@
         <v>78940</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2436,13 @@
         <v>65503</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2457,13 +2451,13 @@
         <v>48858</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2472,13 +2466,13 @@
         <v>114361</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2487,13 @@
         <v>180093</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -2508,13 +2502,13 @@
         <v>142058</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -2523,13 +2517,13 @@
         <v>322150</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2591,13 @@
         <v>58826</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -2612,13 +2606,13 @@
         <v>60240</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -2627,13 +2621,13 @@
         <v>119067</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2642,13 @@
         <v>75679</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -2663,13 +2657,13 @@
         <v>63767</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>125</v>
@@ -2678,13 +2672,13 @@
         <v>139446</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2693,13 @@
         <v>286493</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -2714,13 +2708,13 @@
         <v>198680</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>455</v>
@@ -2729,13 +2723,13 @@
         <v>485173</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>323810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -2765,13 +2759,13 @@
         <v>197750</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -2780,13 +2774,13 @@
         <v>521560</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2795,13 @@
         <v>665738</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -2816,13 +2810,13 @@
         <v>422865</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1015</v>
@@ -2831,13 +2825,13 @@
         <v>1088603</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2887,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B11FD2-EA0C-442D-B48C-4F9DFAC613B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAAFCB5-50A0-415D-9507-3D0D0BCAFB82}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2929,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3036,10 +3030,10 @@
         <v>13116</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>198</v>
@@ -3057,7 +3051,7 @@
         <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3189,7 +3183,7 @@
         <v>31769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>222</v>
@@ -3347,10 +3341,10 @@
         <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -3359,13 +3353,13 @@
         <v>71386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -3374,13 +3368,13 @@
         <v>134441</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3389,13 @@
         <v>96629</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3410,13 +3404,13 @@
         <v>91872</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -3425,13 +3419,13 @@
         <v>188501</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3440,13 @@
         <v>242383</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -3461,13 +3455,13 @@
         <v>152316</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>372</v>
@@ -3476,13 +3470,13 @@
         <v>394699</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3491,13 @@
         <v>257009</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -3512,10 +3506,10 @@
         <v>187455</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>269</v>
@@ -3569,7 +3563,7 @@
         <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -3578,13 +3572,13 @@
         <v>415867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,7 +3634,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3652,13 +3646,13 @@
         <v>5352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3667,13 +3661,13 @@
         <v>11140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3682,13 +3676,13 @@
         <v>16492</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,7 +3697,7 @@
         <v>17991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>291</v>
@@ -3739,7 +3733,7 @@
         <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,10 +3748,10 @@
         <v>72147</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>300</v>
@@ -3862,7 +3856,7 @@
         <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -3871,13 +3865,13 @@
         <v>149750</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>310</v>
@@ -3886,13 +3880,13 @@
         <v>330231</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3954,13 @@
         <v>81523</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -3975,13 +3969,13 @@
         <v>90677</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -3990,13 +3984,13 @@
         <v>172200</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4005,13 @@
         <v>137436</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>129</v>
@@ -4026,13 +4020,13 @@
         <v>127625</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>259</v>
@@ -4041,13 +4035,13 @@
         <v>265061</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4056,13 @@
         <v>356405</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>225</v>
@@ -4077,13 +4071,13 @@
         <v>228452</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>552</v>
@@ -4092,10 +4086,10 @@
         <v>584856</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>183</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>348</v>
@@ -4134,7 +4128,7 @@
         <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>612</v>
@@ -4143,13 +4137,13 @@
         <v>636980</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4158,13 @@
         <v>480143</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>300</v>
@@ -4179,13 +4173,13 @@
         <v>312998</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>745</v>
@@ -4194,13 +4188,13 @@
         <v>793141</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4250,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49AED946-24F2-4A29-BE8D-DA77F8785831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D10BD7-B457-4E87-801F-D48716B889BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A209006C-27DC-4A8C-8F1B-4DBC2E2BA316}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DCA169A7-A0F4-4349-893A-6AC87CDCD4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1543,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D5983-90AF-4D86-A86A-07C0225AC72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D758218C-CE47-47A7-9C41-2F70A8FF431B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2906,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAAFCB5-50A0-415D-9507-3D0D0BCAFB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429B2030-BCE6-4632-915E-11070825159B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4083,7 @@
         <v>552</v>
       </c>
       <c r="N24" s="7">
-        <v>584856</v>
+        <v>584857</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>94</v>
@@ -4236,7 +4236,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
